--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,32 +448,9 @@
         <v>titular</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>dcea@smu.cl</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Sin Informacion</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -397,60 +397,1190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>mail</v>
+        <v>ticketId</v>
       </c>
       <c r="B1" t="str">
+        <v>fullName</v>
+      </c>
+      <c r="C1" t="str">
+        <v>nameCtaBancaria</v>
+      </c>
+      <c r="D1" t="str">
         <v>banco</v>
       </c>
-      <c r="C1" t="str">
+      <c r="E1" t="str">
         <v>n_cta_bancaria</v>
       </c>
-      <c r="D1" t="str">
+      <c r="F1" t="str">
         <v>rut</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>rut_cta_bancaria</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>tipo_cta_bancaria</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>cuenta_destino</v>
       </c>
+      <c r="J1" t="str">
+        <v>tienda</v>
+      </c>
+      <c r="K1" t="str">
+        <v>medioDePago</v>
+      </c>
+      <c r="L1" t="str">
+        <v>motivoDevolucion</v>
+      </c>
+      <c r="M1" t="str">
+        <v>folioNc</v>
+      </c>
+      <c r="N1" t="str">
+        <v>fechaNc</v>
+      </c>
+      <c r="O1" t="str">
+        <v>montoDevolucion</v>
+      </c>
+      <c r="P1" t="str">
+        <v>estadoDevolucion</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>order</v>
+      </c>
+      <c r="R1" t="str">
+        <v>fechaTicket</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>contacto.diego.c@gmail.com</v>
+      <c r="A2">
+        <v>793132</v>
       </c>
       <c r="B2" t="str">
-        <v>falabella</v>
+        <v>Karina Vera</v>
       </c>
       <c r="C2" t="str">
-        <v>50013880580</v>
+        <v>Karina Vera</v>
       </c>
       <c r="D2" t="str">
-        <v>186942299</v>
+        <v>Sin Informacion</v>
       </c>
       <c r="E2" t="str">
-        <v>186942299</v>
+        <v>Sin Informacion</v>
       </c>
       <c r="F2" t="str">
+        <v>261122545</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J2" t="str">
+        <v>3092 Alvi - Pajaritos</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Transferencia</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M2" t="str">
+        <v>5796</v>
+      </c>
+      <c r="N2" t="str">
+        <v>2025-08-01</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2460</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>586955</v>
+      </c>
+      <c r="R2" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>793127</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Oscar Bustos</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Oscar Bustos</v>
+      </c>
+      <c r="D3" t="str">
+        <v>santander</v>
+      </c>
+      <c r="E3" t="str">
+        <v>000071231976</v>
+      </c>
+      <c r="F3" t="str">
+        <v>179438429</v>
+      </c>
+      <c r="G3" t="str">
+        <v>183705733</v>
+      </c>
+      <c r="H3" t="str">
+        <v>corriente</v>
+      </c>
+      <c r="I3" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J3" t="str">
+        <v>3193 Alvi - Tobalaba</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Transferencia</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M3" t="str">
+        <v>3297</v>
+      </c>
+      <c r="N3" t="str">
+        <v>2025-08-01</v>
+      </c>
+      <c r="O3" t="str">
+        <v>5210</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>586933</v>
+      </c>
+      <c r="R3" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>786612</v>
+      </c>
+      <c r="B4" t="str">
+        <v>guisela cañulef</v>
+      </c>
+      <c r="C4" t="str">
+        <v>guisela cañulef</v>
+      </c>
+      <c r="D4" t="str">
+        <v>estado</v>
+      </c>
+      <c r="E4" t="str">
+        <v>15896415</v>
+      </c>
+      <c r="F4" t="str">
+        <v>158964155</v>
+      </c>
+      <c r="G4" t="str">
+        <v>158964155</v>
+      </c>
+      <c r="H4" t="str">
         <v>vista</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I4" t="str">
         <v>titular</v>
+      </c>
+      <c r="J4" t="str">
+        <v>3092 Alvi - Pajaritos</v>
+      </c>
+      <c r="K4" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M4" t="str">
+        <v>5798</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2025-08-04</v>
+      </c>
+      <c r="O4" t="str">
+        <v>85850</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>586829</v>
+      </c>
+      <c r="R4" t="str">
+        <v>2025-08-02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>793605</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Mónica Teresa Pinto Reyes</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Mónica Teresa Pinto Reyes</v>
+      </c>
+      <c r="D5" t="str">
+        <v>estado</v>
+      </c>
+      <c r="E5" t="str">
+        <v>10322890</v>
+      </c>
+      <c r="F5" t="str">
+        <v>103228905</v>
+      </c>
+      <c r="G5" t="str">
+        <v>103228905</v>
+      </c>
+      <c r="H5" t="str">
+        <v>vista</v>
+      </c>
+      <c r="I5" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0581 Unimarc - Mirador</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Banco Estado Débito</v>
+      </c>
+      <c r="L5" t="str">
+        <v xml:space="preserve">Vuelto Pendiente </v>
+      </c>
+      <c r="M5" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O5" t="str">
+        <v>10108</v>
+      </c>
+      <c r="P5" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>4058800</v>
+      </c>
+      <c r="R5" t="str">
+        <v>2025-08-07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>793317</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Marcela vega</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Marcela vega</v>
+      </c>
+      <c r="D6" t="str">
+        <v>estado</v>
+      </c>
+      <c r="E6" t="str">
+        <v>12137165</v>
+      </c>
+      <c r="F6" t="str">
+        <v>121371669</v>
+      </c>
+      <c r="G6" t="str">
+        <v>121371669</v>
+      </c>
+      <c r="H6" t="str">
+        <v>vista</v>
+      </c>
+      <c r="I6" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J6" t="str">
+        <v>0442 Unimarc - Coyhaique</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Unipay sin cuotas</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M6" t="str">
+        <v>20694269</v>
+      </c>
+      <c r="N6" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O6" t="str">
+        <v>2000</v>
+      </c>
+      <c r="P6" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>4058708</v>
+      </c>
+      <c r="R6" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>792775</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Katherine Cedas</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Katherine Cedas</v>
+      </c>
+      <c r="D7" t="str">
+        <v>estado</v>
+      </c>
+      <c r="E7" t="str">
+        <v>18471233</v>
+      </c>
+      <c r="F7" t="str">
+        <v>184712334</v>
+      </c>
+      <c r="G7" t="str">
+        <v>184712334</v>
+      </c>
+      <c r="H7" t="str">
+        <v>vista</v>
+      </c>
+      <c r="I7" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0442 Unimarc - Coyhaique</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Banco Estado Débito</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M7" t="str">
+        <v>20694268</v>
+      </c>
+      <c r="N7" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O7" t="str">
+        <v>4946</v>
+      </c>
+      <c r="P7" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>4058164</v>
+      </c>
+      <c r="R7" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>792725</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Mauricio Negrete Rojas</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Mauricio Negrete Rojas</v>
+      </c>
+      <c r="D8" t="str">
+        <v>coopeuch</v>
+      </c>
+      <c r="E8" t="str">
+        <v>221301226</v>
+      </c>
+      <c r="F8" t="str">
+        <v>109349534</v>
+      </c>
+      <c r="G8" t="str">
+        <v>109349534</v>
+      </c>
+      <c r="H8" t="str">
+        <v>vista</v>
+      </c>
+      <c r="I8" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0581 Unimarc - Mirador</v>
+      </c>
+      <c r="K8" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Anulación Pedido</v>
+      </c>
+      <c r="M8" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O8" t="str">
+        <v>22682</v>
+      </c>
+      <c r="P8" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>4057063</v>
+      </c>
+      <c r="R8" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>792188</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Camila Millacura Salinas</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Camila Millacura Salinas</v>
+      </c>
+      <c r="D9" t="str">
+        <v>chile</v>
+      </c>
+      <c r="E9" t="str">
+        <v>000044821082</v>
+      </c>
+      <c r="F9" t="str">
+        <v>195711100</v>
+      </c>
+      <c r="G9" t="str">
+        <v>195711100</v>
+      </c>
+      <c r="H9" t="str">
+        <v>vista</v>
+      </c>
+      <c r="I9" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J9" t="str">
+        <v>0581 Unimarc - Mirador</v>
+      </c>
+      <c r="K9" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M9" t="str">
+        <v>20694694</v>
+      </c>
+      <c r="N9" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O9" t="str">
+        <v>1267</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>4057161</v>
+      </c>
+      <c r="R9" t="str">
+        <v>2025-08-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>792137</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Luis Ancavil</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Luis Ancavil</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F10" t="str">
+        <v>66312666</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J10" t="str">
+        <v>0916 Unimarc - La Paloma</v>
+      </c>
+      <c r="K10" t="str">
+        <v>OneClick Crédito</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M10" t="str">
+        <v>20647366</v>
+      </c>
+      <c r="N10" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O10" t="str">
+        <v>5090</v>
+      </c>
+      <c r="P10" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>4056883</v>
+      </c>
+      <c r="R10" t="str">
+        <v>2025-08-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>789870</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Carol Valenzuela</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Carol Valenzuela</v>
+      </c>
+      <c r="D11" t="str">
+        <v>estado</v>
+      </c>
+      <c r="E11" t="str">
+        <v>8094926</v>
+      </c>
+      <c r="F11" t="str">
+        <v>173058799</v>
+      </c>
+      <c r="G11" t="str">
+        <v>173058799</v>
+      </c>
+      <c r="H11" t="str">
+        <v>corriente</v>
+      </c>
+      <c r="I11" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J11" t="str">
+        <v>0581 Unimarc - Mirador</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Banco Estado Débito</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M11" t="str">
+        <v>20694693</v>
+      </c>
+      <c r="N11" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O11" t="str">
+        <v>14058</v>
+      </c>
+      <c r="P11" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>4047261</v>
+      </c>
+      <c r="R11" t="str">
+        <v>2025-08-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>793604</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Felipe Henriquez</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Felipe Henriquez</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F12" t="str">
+        <v>178618717</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J12" t="str">
+        <v>0713 Unimarc - Gomez Carreno</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Banco Estado Débito</v>
+      </c>
+      <c r="L12" t="str">
+        <v xml:space="preserve">Vuelto Pendiente </v>
+      </c>
+      <c r="M12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N12" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O12" t="str">
+        <v>1424</v>
+      </c>
+      <c r="P12" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>4058430</v>
+      </c>
+      <c r="R12" t="str">
+        <v>2025-08-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>792982</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Sandra Mella Sanchez</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sandra Mella Sanchez</v>
+      </c>
+      <c r="D13" t="str">
+        <v>chile</v>
+      </c>
+      <c r="E13" t="str">
+        <v>002601472104</v>
+      </c>
+      <c r="F13" t="str">
+        <v>173873158</v>
+      </c>
+      <c r="G13" t="str">
+        <v>173873158</v>
+      </c>
+      <c r="H13" t="str">
+        <v>corriente</v>
+      </c>
+      <c r="I13" t="str">
+        <v>titular</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0767 Unimarc - Ancud III</v>
+      </c>
+      <c r="K13" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L13" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M13" t="str">
+        <v>20685056</v>
+      </c>
+      <c r="N13" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O13" t="str">
+        <v>17975</v>
+      </c>
+      <c r="P13" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>4057852</v>
+      </c>
+      <c r="R13" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>792743</v>
+      </c>
+      <c r="B14" t="str">
+        <v>luisa José nazar aguero</v>
+      </c>
+      <c r="C14" t="str">
+        <v>luisa José nazar aguero</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F14" t="str">
+        <v>176702567</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0333 Unimarc - Los Leones</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Banco Estado Débito</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M14" t="str">
+        <v>20692757</v>
+      </c>
+      <c r="N14" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O14" t="str">
+        <v>4580</v>
+      </c>
+      <c r="P14" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>4045557</v>
+      </c>
+      <c r="R14" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>792733</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Vanessa Gonzalez</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Vanessa Gonzalez</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F15" t="str">
+        <v>183249983</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J15" t="str">
+        <v>3092 Alvi - Pajaritos</v>
+      </c>
+      <c r="K15" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L15" t="str">
+        <v>Anulación Pedido</v>
+      </c>
+      <c r="M15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N15" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O15" t="str">
+        <v>59211</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>587335</v>
+      </c>
+      <c r="R15" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>792728</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Hernán Romo</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Hernán Romo</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F16" t="str">
+        <v>141146890</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J16" t="str">
+        <v>0025 Unimarc - El Palomar</v>
+      </c>
+      <c r="K16" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L16" t="str">
+        <v xml:space="preserve">Vuelto Pendiente </v>
+      </c>
+      <c r="M16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N16" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O16" t="str">
+        <v>1138</v>
+      </c>
+      <c r="P16" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>4057392</v>
+      </c>
+      <c r="R16" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>792721</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Nicole Solemiz</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Nicole Solemiz</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F17" t="str">
+        <v>174445524</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J17" t="str">
+        <v>0736 Unimarc - El Volcan</v>
+      </c>
+      <c r="K17" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L17" t="str">
+        <v xml:space="preserve">Vuelto Pendiente </v>
+      </c>
+      <c r="M17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O17" t="str">
+        <v>1790</v>
+      </c>
+      <c r="P17" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>4055585</v>
+      </c>
+      <c r="R17" t="str">
+        <v>2025-08-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>789843</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Dámaris Mera</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Dámaris Mera</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F18" t="str">
+        <v>161015857</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0442 Unimarc - Coyhaique</v>
+      </c>
+      <c r="K18" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M18" t="str">
+        <v>20694267</v>
+      </c>
+      <c r="N18" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O18" t="str">
+        <v>40020</v>
+      </c>
+      <c r="P18" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>4055263</v>
+      </c>
+      <c r="R18" t="str">
+        <v>2025-08-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>788724</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Juan Alarcón</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Juan Alarcón</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F19" t="str">
+        <v>140242241</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0345 Unimarc - Chillan</v>
+      </c>
+      <c r="K19" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L19" t="str">
+        <v xml:space="preserve">Vuelto Pendiente </v>
+      </c>
+      <c r="M19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O19" t="str">
+        <v>3930</v>
+      </c>
+      <c r="P19" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>4050785</v>
+      </c>
+      <c r="R19" t="str">
+        <v>2025-08-04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>788718</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Javier Herrera Montero</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Javier Herrera Montero</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F20" t="str">
+        <v>19475986K</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J20" t="str">
+        <v>0089 Unimarc - Pajaritos</v>
+      </c>
+      <c r="K20" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L20" t="str">
+        <v xml:space="preserve">Vuelto Pendiente </v>
+      </c>
+      <c r="M20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="N20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="O20" t="str">
+        <v>1320</v>
+      </c>
+      <c r="P20" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>4047587</v>
+      </c>
+      <c r="R20" t="str">
+        <v>2025-08-04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>788092</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Fabiola Molina</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Fabiola Molina</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="F21" t="str">
+        <v>120800884</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="J21" t="str">
+        <v>0034 Unimarc - La Chimba</v>
+      </c>
+      <c r="K21" t="str">
+        <v>OneClick Débito</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Dev. Nota Credito</v>
+      </c>
+      <c r="M21" t="str">
+        <v>20696049</v>
+      </c>
+      <c r="N21" t="str">
+        <v>2025-08-06</v>
+      </c>
+      <c r="O21" t="str">
+        <v>2950</v>
+      </c>
+      <c r="P21" t="str">
+        <v>Sin Datos Bancarios</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>4051999</v>
+      </c>
+      <c r="R21" t="str">
+        <v>2025-08-03</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -449,88 +449,28 @@
         <v>folioNc</v>
       </c>
       <c r="P1" t="str">
+        <v>tipoNC</v>
+      </c>
+      <c r="Q1" t="str">
         <v>fechaNc</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>montoDevolucion</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>estadoDevolucion</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>order</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>fechaTicket</v>
-      </c>
-      <c r="U1" t="str">
-        <v>tipoNC</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>804686</v>
       </c>
-      <c r="B2" t="str">
-        <v>Giovanna Cavagnola</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Jose Miguel Hernandez Cavagnola</v>
-      </c>
-      <c r="D2" t="str">
-        <v>falabella</v>
-      </c>
-      <c r="E2" t="str">
-        <v>051</v>
-      </c>
-      <c r="F2" t="str">
-        <v>19821891989</v>
-      </c>
-      <c r="G2" t="str">
-        <v>763578100</v>
-      </c>
-      <c r="H2" t="str">
-        <v>198929026</v>
-      </c>
-      <c r="I2" t="str">
-        <v>corriente</v>
-      </c>
-      <c r="J2" t="str">
-        <v>cc</v>
-      </c>
-      <c r="K2" t="str">
-        <v>tercero</v>
-      </c>
-      <c r="L2" t="str">
-        <v>3092 Alvi - Pajaritos</v>
-      </c>
-      <c r="M2" t="str">
-        <v>Transferencia</v>
-      </c>
-      <c r="N2" t="str">
-        <v xml:space="preserve">Vuelto Pendiente </v>
-      </c>
-      <c r="O2" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="P2" t="str">
-        <v>Sin Informacion</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>2</v>
-      </c>
-      <c r="R2" t="str">
-        <v>Devuelto</v>
-      </c>
-      <c r="S2" t="str">
-        <v>589336</v>
-      </c>
-      <c r="T2" t="str">
-        <v>2025-08-21</v>
-      </c>
-      <c r="U2" t="str">
-        <v>Sin Informacion</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -582,19 +522,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q3" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R3" t="str">
         <v>30121</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S3" t="str">
+      <c r="T3" t="str">
         <v>589092</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U3" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="4">
@@ -647,19 +587,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q4" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R4" t="str">
         <v>10320</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <v>589203</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U4" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="5">
@@ -712,19 +652,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q5" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R5" t="str">
         <v>15500</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <v>589211</v>
       </c>
-      <c r="T5" t="str">
+      <c r="U5" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U5" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="6">
@@ -777,19 +717,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q6" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R6" t="str">
         <v>90500</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <v>589073</v>
       </c>
-      <c r="T6" t="str">
+      <c r="U6" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U6" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="7">
@@ -842,19 +782,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q7" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R7" t="str">
         <v>6500</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <v>588833</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U7" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="8">
@@ -904,22 +844,22 @@
         <v>9642 - 9641 - 9640</v>
       </c>
       <c r="P8" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q8" t="str">
         <v>2025-08-20</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <v>99255</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <v>589224</v>
       </c>
-      <c r="T8" t="str">
+      <c r="U8" t="str">
         <v>2025-08-19</v>
-      </c>
-      <c r="U8" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="9">
@@ -969,22 +909,22 @@
         <v>3301</v>
       </c>
       <c r="P9" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q9" t="str">
         <v>2025-08-19</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" t="str">
         <v>36700</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <v>588700</v>
       </c>
-      <c r="T9" t="str">
+      <c r="U9" t="str">
         <v>2025-08-13</v>
-      </c>
-      <c r="U9" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="10">
@@ -1037,19 +977,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q10" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R10" t="str">
         <v>3730</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <v>4079252</v>
       </c>
-      <c r="T10" t="str">
+      <c r="U10" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U10" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="11">
@@ -1099,22 +1039,22 @@
         <v>20703627</v>
       </c>
       <c r="P11" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q11" t="str">
         <v>2025-08-20</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <v>81249</v>
       </c>
-      <c r="R11" t="str">
-        <v>En Proceso MDP</v>
-      </c>
       <c r="S11" t="str">
+        <v>Devuelto</v>
+      </c>
+      <c r="T11" t="str">
         <v>4080562</v>
       </c>
-      <c r="T11" t="str">
+      <c r="U11" t="str">
         <v>2025-08-20</v>
-      </c>
-      <c r="U11" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="12">
@@ -1164,22 +1104,22 @@
         <v>20689415 - 20689414</v>
       </c>
       <c r="P12" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q12" t="str">
         <v>2025-08-20</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" t="str">
         <v>99331</v>
       </c>
-      <c r="R12" t="str">
+      <c r="S12" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S12" t="str">
+      <c r="T12" t="str">
         <v>4080135</v>
       </c>
-      <c r="T12" t="str">
+      <c r="U12" t="str">
         <v>2025-08-19</v>
-      </c>
-      <c r="U12" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="13">
@@ -1229,22 +1169,22 @@
         <v>20695553</v>
       </c>
       <c r="P13" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q13" t="str">
         <v>2025-08-20</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="R13" t="str">
         <v>17736</v>
       </c>
-      <c r="R13" t="str">
+      <c r="S13" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S13" t="str">
+      <c r="T13" t="str">
         <v>4079320</v>
       </c>
-      <c r="T13" t="str">
+      <c r="U13" t="str">
         <v>2025-08-19</v>
-      </c>
-      <c r="U13" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="14">
@@ -1294,22 +1234,22 @@
         <v>20689413</v>
       </c>
       <c r="P14" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q14" t="str">
         <v>2025-08-20</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" t="str">
         <v>4020</v>
       </c>
-      <c r="R14" t="str">
+      <c r="S14" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S14" t="str">
+      <c r="T14" t="str">
         <v>4079358</v>
       </c>
-      <c r="T14" t="str">
+      <c r="U14" t="str">
         <v>2025-08-19</v>
-      </c>
-      <c r="U14" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="15">
@@ -1359,22 +1299,22 @@
         <v>20704001</v>
       </c>
       <c r="P15" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q15" t="str">
         <v>2025-08-19</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" t="str">
         <v>25544</v>
       </c>
-      <c r="R15" t="str">
+      <c r="S15" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S15" t="str">
+      <c r="T15" t="str">
         <v>4078605</v>
       </c>
-      <c r="T15" t="str">
+      <c r="U15" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U15" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="16">
@@ -1424,22 +1364,22 @@
         <v>20701931</v>
       </c>
       <c r="P16" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q16" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <v>55875</v>
       </c>
-      <c r="R16" t="str">
-        <v>En Proceso MDP</v>
-      </c>
       <c r="S16" t="str">
+        <v>Devuelto</v>
+      </c>
+      <c r="T16" t="str">
         <v>4076675</v>
       </c>
-      <c r="T16" t="str">
+      <c r="U16" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U16" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="17">
@@ -1489,22 +1429,22 @@
         <v>20705443</v>
       </c>
       <c r="P17" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q17" t="str">
         <v>2025-08-19</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" t="str">
         <v>142780</v>
       </c>
-      <c r="R17" t="str">
+      <c r="S17" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S17" t="str">
+      <c r="T17" t="str">
         <v>4078003</v>
       </c>
-      <c r="T17" t="str">
+      <c r="U17" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U17" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="18">
@@ -1557,19 +1497,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q18" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R18" t="str">
         <v>2429</v>
       </c>
-      <c r="R18" t="str">
+      <c r="S18" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S18" t="str">
+      <c r="T18" t="str">
         <v>4076915</v>
       </c>
-      <c r="T18" t="str">
+      <c r="U18" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U18" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="19">
@@ -1622,19 +1562,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q19" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R19" t="str">
         <v>10054</v>
       </c>
-      <c r="R19" t="str">
+      <c r="S19" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S19" t="str">
+      <c r="T19" t="str">
         <v>4076219</v>
       </c>
-      <c r="T19" t="str">
+      <c r="U19" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U19" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="20">
@@ -1687,19 +1627,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q20" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R20" t="str">
         <v>1124</v>
       </c>
-      <c r="R20" t="str">
+      <c r="S20" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S20" t="str">
+      <c r="T20" t="str">
         <v>4076149</v>
       </c>
-      <c r="T20" t="str">
+      <c r="U20" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U20" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="21">
@@ -1752,19 +1692,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q21" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R21" t="str">
         <v>12358</v>
       </c>
-      <c r="R21" t="str">
+      <c r="S21" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S21" t="str">
+      <c r="T21" t="str">
         <v>4074870</v>
       </c>
-      <c r="T21" t="str">
+      <c r="U21" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U21" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="22">
@@ -1817,19 +1757,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q22" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R22" t="str">
         <v>4260</v>
       </c>
-      <c r="R22" t="str">
+      <c r="S22" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S22" t="str">
+      <c r="T22" t="str">
         <v>4073675</v>
       </c>
-      <c r="T22" t="str">
+      <c r="U22" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U22" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="23">
@@ -1882,19 +1822,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q23" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R23" t="str">
         <v>3745</v>
       </c>
-      <c r="R23" t="str">
+      <c r="S23" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S23" t="str">
+      <c r="T23" t="str">
         <v>4072924</v>
       </c>
-      <c r="T23" t="str">
+      <c r="U23" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U23" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="24">
@@ -1947,19 +1887,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q24" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R24" t="str">
         <v>3626</v>
       </c>
-      <c r="R24" t="str">
+      <c r="S24" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S24" t="str">
+      <c r="T24" t="str">
         <v>4070820</v>
       </c>
-      <c r="T24" t="str">
+      <c r="U24" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U24" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="25">
@@ -2009,22 +1949,22 @@
         <v>20706892 - 20705444</v>
       </c>
       <c r="P25" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q25" t="str">
         <v>2025-08-19</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" t="str">
         <v>127860</v>
       </c>
-      <c r="R25" t="str">
+      <c r="S25" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S25" t="str">
+      <c r="T25" t="str">
         <v>4077919</v>
       </c>
-      <c r="T25" t="str">
+      <c r="U25" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U25" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="26">
@@ -2074,22 +2014,22 @@
         <v>20698819-20698818</v>
       </c>
       <c r="P26" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q26" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26" t="str">
         <v>71676</v>
       </c>
-      <c r="R26" t="str">
+      <c r="S26" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S26" t="str">
+      <c r="T26" t="str">
         <v>4077729</v>
       </c>
-      <c r="T26" t="str">
+      <c r="U26" t="str">
         <v>2025-08-17</v>
-      </c>
-      <c r="U26" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="27">
@@ -2139,22 +2079,22 @@
         <v>20706653</v>
       </c>
       <c r="P27" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q27" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27" t="str">
         <v>34648</v>
       </c>
-      <c r="R27" t="str">
+      <c r="S27" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S27" t="str">
+      <c r="T27" t="str">
         <v>4075141</v>
       </c>
-      <c r="T27" t="str">
+      <c r="U27" t="str">
         <v>2025-08-17</v>
-      </c>
-      <c r="U27" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="28">
@@ -2204,22 +2144,22 @@
         <v>20692764</v>
       </c>
       <c r="P28" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q28" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28" t="str">
         <v>1590</v>
       </c>
-      <c r="R28" t="str">
+      <c r="S28" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S28" t="str">
+      <c r="T28" t="str">
         <v>4076325</v>
       </c>
-      <c r="T28" t="str">
+      <c r="U28" t="str">
         <v>2025-08-16</v>
-      </c>
-      <c r="U28" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="29">
@@ -2269,22 +2209,22 @@
         <v>20697957</v>
       </c>
       <c r="P29" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q29" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29" t="str">
         <v>1096</v>
       </c>
-      <c r="R29" t="str">
+      <c r="S29" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S29" t="str">
+      <c r="T29" t="str">
         <v>4075375</v>
       </c>
-      <c r="T29" t="str">
+      <c r="U29" t="str">
         <v>2025-08-16</v>
-      </c>
-      <c r="U29" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="30">
@@ -2334,22 +2274,22 @@
         <v>20702879</v>
       </c>
       <c r="P30" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q30" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30" t="str">
         <v>3845</v>
       </c>
-      <c r="R30" t="str">
+      <c r="S30" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S30" t="str">
+      <c r="T30" t="str">
         <v>4074458</v>
       </c>
-      <c r="T30" t="str">
+      <c r="U30" t="str">
         <v>2025-08-15</v>
-      </c>
-      <c r="U30" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="31">
@@ -2399,22 +2339,22 @@
         <v>20697956</v>
       </c>
       <c r="P31" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q31" t="str">
         <v>2025-08-17</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31" t="str">
         <v>5764</v>
       </c>
-      <c r="R31" t="str">
+      <c r="S31" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S31" t="str">
+      <c r="T31" t="str">
         <v>4072782</v>
       </c>
-      <c r="T31" t="str">
+      <c r="U31" t="str">
         <v>2025-08-15</v>
-      </c>
-      <c r="U31" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="32">
@@ -2464,22 +2404,22 @@
         <v>20645671-20645672- 20645670</v>
       </c>
       <c r="P32" t="str">
+        <v>NC Total</v>
+      </c>
+      <c r="Q32" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="R32" t="str">
         <v>84477</v>
       </c>
-      <c r="R32" t="str">
+      <c r="S32" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S32" t="str">
+      <c r="T32" t="str">
         <v>4070707</v>
       </c>
-      <c r="T32" t="str">
+      <c r="U32" t="str">
         <v>2025-08-14</v>
-      </c>
-      <c r="U32" t="str">
-        <v>NC Total</v>
       </c>
     </row>
     <row r="33">
@@ -2529,22 +2469,22 @@
         <v>20699532</v>
       </c>
       <c r="P33" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q33" t="str">
         <v>2025-08-14</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="R33" t="str">
         <v>3894</v>
       </c>
-      <c r="R33" t="str">
+      <c r="S33" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S33" t="str">
+      <c r="T33" t="str">
         <v>4068171</v>
       </c>
-      <c r="T33" t="str">
+      <c r="U33" t="str">
         <v>2025-08-12</v>
-      </c>
-      <c r="U33" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="34">
@@ -2597,19 +2537,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q34" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R34" t="str">
         <v>16474</v>
       </c>
-      <c r="R34" t="str">
+      <c r="S34" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S34" t="str">
+      <c r="T34" t="str">
         <v>4079861</v>
       </c>
-      <c r="T34" t="str">
+      <c r="U34" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U34" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="35">
@@ -2662,19 +2602,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q35" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R35" t="str">
         <v>8896</v>
       </c>
-      <c r="R35" t="str">
+      <c r="S35" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S35" t="str">
+      <c r="T35" t="str">
         <v>4079098</v>
       </c>
-      <c r="T35" t="str">
+      <c r="U35" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U35" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="36">
@@ -2727,19 +2667,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q36" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R36" t="str">
         <v>590</v>
       </c>
-      <c r="R36" t="str">
+      <c r="S36" t="str">
         <v>Devuelto</v>
       </c>
-      <c r="S36" t="str">
+      <c r="T36" t="str">
         <v>4078692</v>
       </c>
-      <c r="T36" t="str">
+      <c r="U36" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U36" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="37">
@@ -2792,19 +2732,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q37" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R37" t="str">
         <v>4194</v>
       </c>
-      <c r="R37" t="str">
+      <c r="S37" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S37" t="str">
+      <c r="T37" t="str">
         <v>4077921</v>
       </c>
-      <c r="T37" t="str">
+      <c r="U37" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U37" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="38">
@@ -2857,19 +2797,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q38" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R38" t="str">
         <v>4218</v>
       </c>
-      <c r="R38" t="str">
+      <c r="S38" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S38" t="str">
+      <c r="T38" t="str">
         <v>4077245</v>
       </c>
-      <c r="T38" t="str">
+      <c r="U38" t="str">
         <v>2025-08-21</v>
-      </c>
-      <c r="U38" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="39">
@@ -2922,19 +2862,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q39" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R39" t="str">
         <v>4407</v>
       </c>
-      <c r="R39" t="str">
+      <c r="S39" t="str">
         <v>Pendiente</v>
       </c>
-      <c r="S39" t="str">
+      <c r="T39" t="str">
         <v>4077835</v>
       </c>
-      <c r="T39" t="str">
+      <c r="U39" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U39" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="40">
@@ -2987,19 +2927,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q40" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R40" t="str">
         <v>3734</v>
       </c>
-      <c r="R40" t="str">
+      <c r="S40" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S40" t="str">
+      <c r="T40" t="str">
         <v>4075725</v>
       </c>
-      <c r="T40" t="str">
+      <c r="U40" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U40" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="41">
@@ -3052,19 +2992,19 @@
         <v>Sin Informacion</v>
       </c>
       <c r="Q41" t="str">
+        <v>Sin Informacion</v>
+      </c>
+      <c r="R41" t="str">
         <v>4928</v>
       </c>
-      <c r="R41" t="str">
+      <c r="S41" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S41" t="str">
+      <c r="T41" t="str">
         <v>4075119</v>
       </c>
-      <c r="T41" t="str">
+      <c r="U41" t="str">
         <v>2025-08-18</v>
-      </c>
-      <c r="U41" t="str">
-        <v>Sin Informacion</v>
       </c>
     </row>
     <row r="42">
@@ -3114,22 +3054,22 @@
         <v>20703330</v>
       </c>
       <c r="P42" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q42" t="str">
         <v>2025-08-19</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="R42" t="str">
         <v>3097</v>
       </c>
-      <c r="R42" t="str">
+      <c r="S42" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S42" t="str">
+      <c r="T42" t="str">
         <v>4077787</v>
       </c>
-      <c r="T42" t="str">
+      <c r="U42" t="str">
         <v>2025-08-17</v>
-      </c>
-      <c r="U42" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="43">
@@ -3179,22 +3119,22 @@
         <v>20704068</v>
       </c>
       <c r="P43" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q43" t="str">
         <v>2025-08-18</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="R43" t="str">
         <v>1476</v>
       </c>
-      <c r="R43" t="str">
+      <c r="S43" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S43" t="str">
+      <c r="T43" t="str">
         <v>4074592</v>
       </c>
-      <c r="T43" t="str">
+      <c r="U43" t="str">
         <v>2025-08-17</v>
-      </c>
-      <c r="U43" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="44">
@@ -3244,22 +3184,22 @@
         <v>20701671</v>
       </c>
       <c r="P44" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q44" t="str">
         <v>2025-08-15</v>
       </c>
-      <c r="Q44" t="str">
+      <c r="R44" t="str">
         <v>16580</v>
       </c>
-      <c r="R44" t="str">
+      <c r="S44" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S44" t="str">
+      <c r="T44" t="str">
         <v>4071929</v>
       </c>
-      <c r="T44" t="str">
+      <c r="U44" t="str">
         <v>2025-08-14</v>
-      </c>
-      <c r="U44" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="45">
@@ -3309,22 +3249,22 @@
         <v>6385</v>
       </c>
       <c r="P45" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q45" t="str">
         <v>2025-08-14</v>
       </c>
-      <c r="Q45" t="str">
+      <c r="R45" t="str">
         <v>1030</v>
       </c>
-      <c r="R45" t="str">
+      <c r="S45" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S45" t="str">
+      <c r="T45" t="str">
         <v>588606</v>
       </c>
-      <c r="T45" t="str">
+      <c r="U45" t="str">
         <v>2025-08-13</v>
-      </c>
-      <c r="U45" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
     <row r="46">
@@ -3374,22 +3314,22 @@
         <v>8249</v>
       </c>
       <c r="P46" t="str">
+        <v>NC Parcial</v>
+      </c>
+      <c r="Q46" t="str">
         <v>2025-08-14</v>
       </c>
-      <c r="Q46" t="str">
+      <c r="R46" t="str">
         <v>4860</v>
       </c>
-      <c r="R46" t="str">
+      <c r="S46" t="str">
         <v>Sin Datos Bancarios</v>
       </c>
-      <c r="S46" t="str">
+      <c r="T46" t="str">
         <v>588497</v>
       </c>
-      <c r="T46" t="str">
+      <c r="U46" t="str">
         <v>2025-08-12</v>
-      </c>
-      <c r="U46" t="str">
-        <v>NC Parcial</v>
       </c>
     </row>
   </sheetData>
